--- a/src/main/resources/doc/企业级web开发.xlsx
+++ b/src/main/resources/doc/企业级web开发.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="10830" windowHeight="3405" activeTab="3"/>
+    <workbookView windowWidth="16395" windowHeight="5550" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="技术清单" sheetId="1" r:id="rId1"/>
@@ -13,17 +13,17 @@
     <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
-  <oleSize ref="A2:R75"/>
+  <oleSize ref="A54:R127"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -35,32 +35,30 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -79,7 +77,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -87,24 +85,26 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -118,15 +118,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -141,23 +156,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -165,7 +165,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -187,115 +187,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -313,7 +205,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -325,31 +277,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -367,7 +307,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -381,17 +381,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -420,6 +414,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -435,35 +444,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -486,10 +486,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -498,133 +498,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3427,15 +3427,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>378460</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>113665</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>74930</xdr:rowOff>
+      <xdr:colOff>578485</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>74295</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3444,7 +3444,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="352425" y="2857500"/>
+          <a:off x="378460" y="3371215"/>
           <a:ext cx="6372225" cy="4246880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3651,16 +3651,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>527685</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>78740</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>52705</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>513080</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>120650</xdr:rowOff>
+      <xdr:colOff>683895</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>94615</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3669,7 +3669,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7385685" y="2821940"/>
+          <a:off x="7556500" y="3996055"/>
           <a:ext cx="8214995" cy="3813810"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3819,6 +3819,481 @@
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
             <a:t>(1, 1, '黄花', '有机黄花');</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>421640</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>163830</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>299720</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>111760</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="文本框 5"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="421640" y="8564880"/>
+          <a:ext cx="4678680" cy="2005330"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>-- 客户表</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>DROP TABLE IF EXISTS `consumer`;</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>CREATE TABLE `consumer` (</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t> `id` bigint(20) NOT NULL PRIMARY KEY AUTO_INCREMENT,</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t> `version` bigint(20) NOT NULL DEFAULT 0,</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t> `del_time` varchar(30),</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t> `username` varchar(30) NOT NULL COMMENT '用户名',</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t> `password` varchar(30) NOT NULL COMMENT '密码'</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>) ENGINE=InnoDB DEFAULT CHARSET=utf8 COMMENT '客户表';</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>650875</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>138430</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>275590</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>162560</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="文本框 6"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5451475" y="8539480"/>
+          <a:ext cx="6482715" cy="4481830"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>-- 商品评论表</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>DROP TABLE IF EXISTS `shop_comment`;</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>CREATE TABLE `shop_comment` (</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t> `id` bigint(20) NOT NULL PRIMARY KEY AUTO_INCREMENT,</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t> `version` bigint(20) NOT NULL DEFAULT 0,</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t> `del_time` varchar(30),</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t> `consumer_id` BIGINT NOT NULL COMMENT '评论人Id',</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t> `consumer_name` VARCHAR(200) NOT NULL DEFAULT '' COMMENT '评论人名称',</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t> `product_id` BIGINT NOT NULL COMMENT '评论的商品id',</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t> `product_title` VARCHAR(200) NOT NULL DEFAULT '' COMMENT '评论的商品标题',</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t> `parent_comment_id` BIGINT NOT NULL DEFAULT '' COMMENT '父评论id',</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t> `parent_comment_consumer_id` BIGINT NOT NULL NOT NULL DEFAULT '' COMMENT '父评论的用户id',</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t> `reply_comment_id` BIGINT NOT NULL DEFAULT '' COMMENT '被回复的评论id',</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t> `reply_comment_consumer_id` BIGINT NOT NULL DEFAULT '' COMMENT '被回复的评论用户id',</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t> `comment_level` BIGINT NOT NULL DEFAULT '1' COMMENT '评论等级[ 1 一级评论 默认 ，2 二级评论]',</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t> `content` VARCHAR(200) NOT NULL NOT NULL DEFAULT '' COMMENT '评论的内容',</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t> `praise_num` BIGINT NOT NULL DEFAULT '0' COMMENT '点赞数',</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t> `top_status` BIGINT NOT NULL DEFAULT '0' COMMENT '置顶状态[ 1 置顶，0 不置顶 默认 ]',</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t> `createtime` TIMESTAMP NOT NULL DEFAULT current_timestamp COMMENT '创建时间'</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>) ENGINE=InnoDB DEFAULT CHARSET=utf8 COMMENT '商品评论表';</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>395605</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>368935</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="文本框 8"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="395605" y="10938510"/>
+          <a:ext cx="4773930" cy="2615565"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>INSERT INTO consumer (username, password) </a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>VALUES </a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>('张三', '123'),</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>('李四', '123');</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>INSERT INTO shop_comment (consumer_id, consumer_name, product_id, product_title) </a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>VALUES </a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>(1, '张三', 1, '油菜花'),</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>(2, '李四', 1, '油菜花');</a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
@@ -4175,8 +4650,8 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="37" zoomScaleNormal="37" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="E67" sqref="E67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
